--- a/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
@@ -6,7 +6,7 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="table" sheetId="1" r:id="rId3"/>
+    <sheet name="master_reward_level" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="20">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="23">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t xml:space="preserve">IconS_battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IconR_pill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IconR_FuelTank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400</t>
   </si>
 </sst>
 </file>
@@ -147,13 +156,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -164,13 +173,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -181,7 +190,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>18</v>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="46">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>
@@ -81,6 +81,75 @@
   </si>
   <si>
     <t xml:space="preserve">400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 골드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IconS_GoldOre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">연료 2개</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">건전지 5개</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000 골드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">연료 4개</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">건전지 10개</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000 골드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">연료 6개</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">건전지 15개</t>
   </si>
 </sst>
 </file>
@@ -125,7 +194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -139,12 +208,9 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -153,16 +219,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -170,15 +233,12 @@
         <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -187,15 +247,96 @@
         <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>19</v>
       </c>
     </row>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>
@@ -20,9 +20,6 @@
     <t xml:space="preserve">level</t>
   </si>
   <si>
-    <t xml:space="preserve">experience</t>
-  </si>
-  <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
@@ -32,70 +29,37 @@
     <t xml:space="preserve">10001</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000골드</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IconS_goldbar</t>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 골드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IconS_goldore</t>
   </si>
   <si>
     <t xml:space="preserve">10002</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">티켓 2장</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IconS_solidwood</t>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">연료 2개</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IconR_fueltank</t>
   </si>
   <si>
     <t xml:space="preserve">10003</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뽑기 5장</t>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">건전지 5개</t>
   </si>
   <si>
     <t xml:space="preserve">IconS_battery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IconR_pill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IconR_FuelTank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000 골드</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IconS_GoldOre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">연료 2개</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">건전지 5개</t>
   </si>
   <si>
     <t xml:space="preserve">10004</t>
@@ -208,136 +172,136 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" s="0" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="34">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="34">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="34">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="34">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="34">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_level.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="34">
   <si>
     <t xml:space="preserve">reward_id</t>
   </si>
